--- a/setup/setup_Template.xlsx
+++ b/setup/setup_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="789" documentId="8_{F7289491-3A8E-4014-98DC-8F09250306A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4502EC5-9C7A-4A09-9E13-24E226D2BFC0}"/>
+  <xr:revisionPtr revIDLastSave="815" documentId="8_{F7289491-3A8E-4014-98DC-8F09250306A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92AD9434-E248-41F2-AEC6-BC27A99B27EE}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="2652" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="234">
   <si>
     <t>#</t>
   </si>
@@ -716,6 +716,33 @@
   </si>
   <si>
     <t>J_gbx</t>
+  </si>
+  <si>
+    <t>Leakage inductance stator</t>
+  </si>
+  <si>
+    <t>L_sig</t>
+  </si>
+  <si>
+    <t>Leakage Inductance</t>
+  </si>
+  <si>
+    <t>Machine Type</t>
+  </si>
+  <si>
+    <t>Magnet</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Mag</t>
+  </si>
+  <si>
+    <t>1) PSM, 2) SSM, 3) ASM</t>
+  </si>
+  <si>
+    <t>1) Surface Magnet, 2) Interior Magnet</t>
   </si>
 </sst>
 </file>
@@ -836,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -850,6 +877,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1668,7 +1698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7BF3F9-74A5-48BC-85E5-DF3C836A4E03}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -1854,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3630A6F7-7256-4058-B238-4C7390C489AB}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1887,328 +1917,388 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <f>16000/60</f>
         <v>266.66666666666669</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <f>4750/60</f>
         <v>79.166666666666671</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5">
-        <v>420</v>
-      </c>
-      <c r="F5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E7">
-        <v>971</v>
+        <v>420</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8">
-        <v>239000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>119</v>
+      <c r="A8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9">
-        <v>7.3999999999999996E-2</v>
+        <v>971</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1.1E-4</v>
+        <v>118</v>
+      </c>
+      <c r="E10">
+        <v>239000</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2.9999999999999997E-4</v>
+        <v>122</v>
+      </c>
+      <c r="E11">
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1.1E-4</v>
+      </c>
+      <c r="F12" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="11">
-        <v>4.7499999999999999E-3</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="7">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="11">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
         <v>77</v>
       </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17">
-        <v>50000</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20">
+        <v>50000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E18">
+      <c r="E21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F21" t="s">
         <v>90</v>
       </c>
     </row>

--- a/setup/setup_Template.xlsx
+++ b/setup/setup_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="815" documentId="8_{F7289491-3A8E-4014-98DC-8F09250306A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92AD9434-E248-41F2-AEC6-BC27A99B27EE}"/>
+  <xr:revisionPtr revIDLastSave="845" documentId="8_{F7289491-3A8E-4014-98DC-8F09250306A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F41ABFB-FAAB-4612-884D-92FB8ECF85CC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12204" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="242">
   <si>
     <t>#</t>
   </si>
@@ -586,18 +586,12 @@
     <t>AC Busbar</t>
   </si>
   <si>
-    <t>AC busbar resistance per phase</t>
-  </si>
-  <si>
     <t>R_ac</t>
   </si>
   <si>
     <t>DC Busbar</t>
   </si>
   <si>
-    <t>DC busbar resistance</t>
-  </si>
-  <si>
     <t>R_dc</t>
   </si>
   <si>
@@ -743,6 +737,36 @@
   </si>
   <si>
     <t>1) Surface Magnet, 2) Interior Magnet</t>
+  </si>
+  <si>
+    <t>Slope Temperature</t>
+  </si>
+  <si>
+    <t>Gate Resistance</t>
+  </si>
+  <si>
+    <t>Value of the gate resistance for loss scaling</t>
+  </si>
+  <si>
+    <t>R_g</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Sensitivity of parameters with temperature (Tjmax-T0)</t>
+  </si>
+  <si>
+    <t>Max Temperature</t>
+  </si>
+  <si>
+    <t>Tj_max</t>
+  </si>
+  <si>
+    <t>AC busbar resistance per phase @20 degC</t>
+  </si>
+  <si>
+    <t>DC busbar resistance @20 degC</t>
   </si>
 </sst>
 </file>
@@ -863,7 +887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -877,9 +901,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1543,62 +1566,62 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="E11">
         <v>0.6</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="E12">
         <v>0.5</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E13" s="9">
         <v>0.6</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1760,7 +1783,7 @@
         <v>74</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E3" s="9">
         <v>0.1</v>
@@ -1840,7 +1863,7 @@
         <v>88</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E7">
         <v>50000</v>
@@ -1860,7 +1883,7 @@
         <v>89</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E8">
         <v>5.0000000000000001E-3</v>
@@ -1886,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3630A6F7-7256-4058-B238-4C7390C489AB}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1917,42 +1940,42 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="C3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="15">
-        <v>1</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2160,21 +2183,21 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E14" s="7">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2234,30 +2257,30 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2273,7 +2296,7 @@
         <v>88</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E20">
         <v>50000</v>
@@ -2293,7 +2316,7 @@
         <v>89</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E21">
         <v>5.0000000000000001E-3</v>
@@ -2309,16 +2332,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285D35A-F197-4EB0-88CD-0BBC2A0271CA}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2409,10 +2432,10 @@
         <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E5">
         <v>650</v>
@@ -2429,10 +2452,10 @@
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E6">
         <v>750</v>
@@ -2442,80 +2465,80 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="13">
         <v>25</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="13" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>149</v>
+        <v>238</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8">
-        <v>0.7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
+        <v>239</v>
+      </c>
+      <c r="E8" s="13">
+        <v>150</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
+      <c r="A9" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E10">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -2523,19 +2546,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E11" s="7">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -2543,50 +2566,59 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
+      </c>
+      <c r="E12">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.05</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1.84E-2</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -2594,121 +2626,181 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1E-3</v>
+        <v>164</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="7">
-        <v>6.4999999999999997E-4</v>
+        <v>165</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1.34E-2</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2.5000000000000001E-4</v>
+        <v>235</v>
+      </c>
+      <c r="E17">
+        <v>2.2000000000000002</v>
       </c>
       <c r="F17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1.2E-4</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="F18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19">
-        <v>50</v>
+        <v>178</v>
+      </c>
+      <c r="E19" s="7">
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1.2E-4</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>63</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E20">
+      <c r="D23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23">
         <v>0.2</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F23" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2774,16 +2866,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E3">
         <v>360</v>
@@ -2794,16 +2886,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E4">
         <v>400</v>
@@ -2814,16 +2906,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E5">
         <v>275</v>
@@ -2834,22 +2926,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">

--- a/setup/setup_Template.xlsx
+++ b/setup/setup_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="845" documentId="8_{F7289491-3A8E-4014-98DC-8F09250306A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F41ABFB-FAAB-4612-884D-92FB8ECF85CC}"/>
+  <xr:revisionPtr revIDLastSave="918" documentId="8_{F7289491-3A8E-4014-98DC-8F09250306A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA84467B-7CFB-4905-BCB8-D60DA7230920}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12204" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="6804" yWindow="4476" windowWidth="23040" windowHeight="12204" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="246">
   <si>
     <t>#</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Internal source resistance</t>
   </si>
   <si>
-    <t>Ri</t>
-  </si>
-  <si>
     <t>Ohm</t>
   </si>
   <si>
@@ -475,9 +472,6 @@
     <t>1) IGBT, 2) MOSFET</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>Parallel Switches</t>
   </si>
   <si>
@@ -767,6 +761,24 @@
   </si>
   <si>
     <t>DC busbar resistance @20 degC</t>
+  </si>
+  <si>
+    <t>R_i</t>
+  </si>
+  <si>
+    <t>Activation Energy</t>
+  </si>
+  <si>
+    <t>Acitavtion energy for resistance change</t>
+  </si>
+  <si>
+    <t>eV</t>
+  </si>
+  <si>
+    <t>Sw</t>
+  </si>
+  <si>
+    <t>E_a</t>
   </si>
 </sst>
 </file>
@@ -804,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -883,11 +895,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -901,8 +922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1353,7 +1373,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1369,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -1389,7 +1409,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -1409,7 +1429,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -1429,7 +1449,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -1449,7 +1469,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -1469,7 +1489,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -1489,7 +1509,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -1509,7 +1529,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -1529,7 +1549,7 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
@@ -1549,7 +1569,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>52</v>
@@ -1566,142 +1586,142 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>213</v>
       </c>
       <c r="E11">
         <v>0.6</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="E12">
         <v>0.5</v>
       </c>
       <c r="F12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E13" s="9">
         <v>0.6</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16">
         <v>4184</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>69</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1722,7 +1742,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1737,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -1757,7 +1777,7 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
@@ -1774,73 +1794,73 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E3" s="9">
         <v>0.1</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>0.6</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <v>0.3</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -1849,52 +1869,48 @@
         <v>0.06</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E7">
         <v>50000</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="D9" s="3"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
@@ -1909,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3630A6F7-7256-4058-B238-4C7390C489AB}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1924,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -1941,16 +1957,16 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1961,16 +1977,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1981,16 +1997,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
         <v>99</v>
       </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2001,100 +2017,101 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <f>16000/60</f>
         <v>266.66666666666669</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6">
         <f>4750/60</f>
         <v>79.166666666666671</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
         <v>104</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="E7">
         <v>420</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="E8" s="9">
         <v>0.12</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9">
+        <f>971</f>
         <v>971</v>
       </c>
       <c r="F9" t="s">
@@ -2103,226 +2120,237 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10">
         <v>239000</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
         <v>120</v>
       </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="E11">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="7">
         <v>1.1E-4</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="7">
-        <v>2.9999999999999997E-4</v>
+        <v>1.1E-4</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E14" s="7">
-        <v>6.0000000000000002E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="E15" s="11">
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16">
+        <v>0.3</v>
+      </c>
+      <c r="F16" t="s">
         <v>79</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="F17" t="s">
         <v>81</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E20">
         <v>50000</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2334,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285D35A-F197-4EB0-88CD-0BBC2A0271CA}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2349,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -2366,36 +2394,36 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="E2">
         <v>8000</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
         <v>142</v>
       </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>143</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2406,16 +2434,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2426,16 +2454,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E5">
         <v>650</v>
@@ -2446,16 +2474,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E6">
         <v>750</v>
@@ -2466,76 +2494,76 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>189</v>
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>187</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="13">
+        <v>184</v>
+      </c>
+      <c r="E7">
         <v>25</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>172</v>
+      <c r="F7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>189</v>
+        <v>236</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>187</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="13">
+        <v>237</v>
+      </c>
+      <c r="E8">
         <v>150</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>172</v>
+      <c r="F8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E9" s="9">
         <v>0.4</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E10">
         <v>0.7</v>
@@ -2546,36 +2574,36 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E11" s="7">
         <v>0.04</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="E12">
         <v>1.1000000000000001</v>
@@ -2586,222 +2614,222 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E13" s="7">
         <v>0.05</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="14">
+        <v>161</v>
+      </c>
+      <c r="E14" s="7">
         <v>1.84E-2</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="14">
+        <v>162</v>
+      </c>
+      <c r="E15" s="7">
         <v>2.3599999999999999E-2</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="14">
+        <v>163</v>
+      </c>
+      <c r="E16" s="7">
         <v>1.34E-2</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>234</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="E17">
         <v>2.2000000000000002</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="E18" s="7">
         <v>1E-3</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="E19" s="7">
         <v>6.4999999999999997E-4</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E20" s="7">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E21" s="11">
         <v>1.2E-4</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E22">
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E23">
         <v>0.2</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2814,12 +2842,12 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2829,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -2849,33 +2877,33 @@
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="E2" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E3">
         <v>360</v>
@@ -2886,16 +2914,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E4">
         <v>400</v>
@@ -2906,16 +2934,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E5">
         <v>275</v>
@@ -2925,36 +2953,84 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6">
+      <c r="A6" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="9">
         <v>50</v>
       </c>
-      <c r="F6" t="s">
-        <v>198</v>
+      <c r="F6" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7">
+        <v>50000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/setup/setup_Template.xlsx
+++ b/setup/setup_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="918" documentId="8_{F7289491-3A8E-4014-98DC-8F09250306A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA84467B-7CFB-4905-BCB8-D60DA7230920}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B86AF50C-FD2C-4A43-B0DE-B0A59999DFAA}"/>
   <bookViews>
-    <workbookView xWindow="6804" yWindow="4476" windowWidth="23040" windowHeight="12204" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="5" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="297">
   <si>
     <t>#</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Resistance</t>
   </si>
   <si>
-    <t>Internal source resistance</t>
-  </si>
-  <si>
     <t>Ohm</t>
   </si>
   <si>
@@ -304,12 +301,6 @@
     <t>Thermal Resistance</t>
   </si>
   <si>
-    <t>Total thermal capacity</t>
-  </si>
-  <si>
-    <t>Dominating thermal resistance</t>
-  </si>
-  <si>
     <t>K/W</t>
   </si>
   <si>
@@ -346,18 +337,9 @@
     <t>p</t>
   </si>
   <si>
-    <t>Max Speed</t>
-  </si>
-  <si>
     <t>Nominal Speed</t>
   </si>
   <si>
-    <t>Max Torque</t>
-  </si>
-  <si>
-    <t>Maximum mechanical torque</t>
-  </si>
-  <si>
     <t>T_max</t>
   </si>
   <si>
@@ -370,9 +352,6 @@
     <t>Nominal speed (base speed)</t>
   </si>
   <si>
-    <t>Maximum rotational speed</t>
-  </si>
-  <si>
     <t>1/s</t>
   </si>
   <si>
@@ -385,400 +364,574 @@
     <t>J_rot</t>
   </si>
   <si>
-    <t>Max Current</t>
-  </si>
-  <si>
-    <t>Max Power</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Fluxlinkage</t>
+  </si>
+  <si>
+    <t>Permanent magnet flux linkage</t>
+  </si>
+  <si>
+    <t>Psi_pm</t>
+  </si>
+  <si>
+    <t>Vs</t>
+  </si>
+  <si>
+    <t>L_d</t>
+  </si>
+  <si>
+    <t>L_q</t>
+  </si>
+  <si>
+    <t>Inductance D</t>
+  </si>
+  <si>
+    <t>Inductance Q</t>
+  </si>
+  <si>
+    <t>Vs/A</t>
+  </si>
+  <si>
+    <t>Stator inductance d-axis</t>
+  </si>
+  <si>
+    <t>Stator inductance q-axis</t>
+  </si>
+  <si>
+    <t>Stator Resistance</t>
+  </si>
+  <si>
+    <t>Per phase stator resistance @20 degC</t>
+  </si>
+  <si>
+    <t>R_s</t>
+  </si>
+  <si>
+    <t>c_m</t>
+  </si>
+  <si>
+    <t>c_b</t>
+  </si>
+  <si>
+    <t>Switching Frequency</t>
+  </si>
+  <si>
+    <t>Average switching frequency</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>1) IGBT, 2) MOSFET</t>
+  </si>
+  <si>
+    <t>Parallel Switches</t>
+  </si>
+  <si>
+    <t>Number of parallel conducting switches</t>
+  </si>
+  <si>
+    <t>nSw</t>
+  </si>
+  <si>
+    <t>Collector Voltage</t>
+  </si>
+  <si>
+    <t>Zero offset collector voltage IGBT</t>
+  </si>
+  <si>
+    <t>On resistance of the transistor</t>
+  </si>
+  <si>
+    <t>r_T</t>
+  </si>
+  <si>
+    <t>V_ce0</t>
+  </si>
+  <si>
+    <t>Diode Voltage</t>
+  </si>
+  <si>
+    <t>Zero offset forward voltage Diode</t>
+  </si>
+  <si>
+    <t>V_d0</t>
+  </si>
+  <si>
+    <t>On Resistance Switch</t>
+  </si>
+  <si>
+    <t>On Resistance Diode</t>
+  </si>
+  <si>
+    <t>On resistance of the diode</t>
+  </si>
+  <si>
+    <t>r_D</t>
+  </si>
+  <si>
+    <t>On Energie</t>
+  </si>
+  <si>
+    <t>Off Energie</t>
+  </si>
+  <si>
+    <t>Rec Energie</t>
+  </si>
+  <si>
+    <t>E_on</t>
+  </si>
+  <si>
+    <t>E_off</t>
+  </si>
+  <si>
+    <t>E_rec</t>
+  </si>
+  <si>
+    <t>On switch energie at rated conditions</t>
+  </si>
+  <si>
+    <t>Off switch energie at rated conditions</t>
+  </si>
+  <si>
+    <t>Reverse recovery energy at rated conditions</t>
+  </si>
+  <si>
+    <t>Rated Voltage</t>
+  </si>
+  <si>
+    <t>Rated Current</t>
+  </si>
+  <si>
+    <t>Rated Temperature</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>ESR DC-Link</t>
+  </si>
+  <si>
+    <t>Electrical resistance DC-Link capacitor</t>
+  </si>
+  <si>
+    <t>R_esr</t>
+  </si>
+  <si>
+    <t>Capacity DC Link</t>
+  </si>
+  <si>
+    <t>Capacitance DC-Link capacitor</t>
+  </si>
+  <si>
+    <t>C_dc</t>
+  </si>
+  <si>
+    <t>As/V</t>
+  </si>
+  <si>
+    <t>AC Busbar</t>
+  </si>
+  <si>
+    <t>R_ac</t>
+  </si>
+  <si>
+    <t>DC Busbar</t>
+  </si>
+  <si>
+    <t>R_dc</t>
+  </si>
+  <si>
+    <t>V_0</t>
+  </si>
+  <si>
+    <t>I_0</t>
+  </si>
+  <si>
+    <t>T_0</t>
+  </si>
+  <si>
+    <t>Rated voltage for loss calculation</t>
+  </si>
+  <si>
+    <t>Rated current for loss calculation</t>
+  </si>
+  <si>
+    <t>Rated temperature for loss calculation</t>
+  </si>
+  <si>
+    <t>K_f</t>
+  </si>
+  <si>
+    <t>K_h</t>
+  </si>
+  <si>
+    <t>C_th</t>
+  </si>
+  <si>
+    <t>R_th</t>
+  </si>
+  <si>
+    <t>Min Voltage</t>
+  </si>
+  <si>
+    <t>Max Voltage</t>
+  </si>
+  <si>
+    <t>Nom Voltage</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>V_nom</t>
+  </si>
+  <si>
+    <t>V_max</t>
+  </si>
+  <si>
+    <t>V_min</t>
+  </si>
+  <si>
+    <t>E_bat</t>
+  </si>
+  <si>
+    <t>Maximum voltage storage</t>
+  </si>
+  <si>
+    <t>Minimum voltage storage</t>
+  </si>
+  <si>
+    <t>Nominal voltage torage</t>
+  </si>
+  <si>
+    <t>Brutto energy content storage</t>
+  </si>
+  <si>
+    <t>Ideal recuperation efficiency</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Recu Efficiency</t>
+  </si>
+  <si>
+    <t>Distribution of breaking forces front/rear</t>
+  </si>
+  <si>
+    <t>Distribution of acceleration forces front/rear (AWD only)</t>
+  </si>
+  <si>
+    <t>d_b</t>
+  </si>
+  <si>
+    <t>d_a</t>
+  </si>
+  <si>
+    <t>p.u.</t>
+  </si>
+  <si>
+    <t>Break Force</t>
+  </si>
+  <si>
+    <t>Acceleration Force</t>
+  </si>
+  <si>
+    <t>Hysteresis losses at rated flux and rated frequency</t>
+  </si>
+  <si>
+    <t>Eddy losses at rated flux and rated frequency</t>
+  </si>
+  <si>
+    <t>Hysteresis Loss</t>
+  </si>
+  <si>
+    <t>Eddy Loss</t>
+  </si>
+  <si>
+    <t>J_gbx</t>
+  </si>
+  <si>
+    <t>Leakage inductance stator</t>
+  </si>
+  <si>
+    <t>L_sig</t>
+  </si>
+  <si>
+    <t>Leakage Inductance</t>
+  </si>
+  <si>
+    <t>Machine Type</t>
+  </si>
+  <si>
+    <t>Magnet</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Mag</t>
+  </si>
+  <si>
+    <t>1) PSM, 2) SSM, 3) ASM</t>
+  </si>
+  <si>
+    <t>1) Surface Magnet, 2) Interior Magnet</t>
+  </si>
+  <si>
+    <t>Slope Temperature</t>
+  </si>
+  <si>
+    <t>Gate Resistance</t>
+  </si>
+  <si>
+    <t>Value of the gate resistance for loss scaling</t>
+  </si>
+  <si>
+    <t>R_g</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Sensitivity of parameters with temperature (Tjmax-T0)</t>
+  </si>
+  <si>
+    <t>Max Temperature</t>
+  </si>
+  <si>
+    <t>Tj_max</t>
+  </si>
+  <si>
+    <t>AC busbar resistance per phase @20 degC</t>
+  </si>
+  <si>
+    <t>DC busbar resistance @20 degC</t>
+  </si>
+  <si>
+    <t>R_i</t>
+  </si>
+  <si>
+    <t>eV</t>
+  </si>
+  <si>
+    <t>Sw</t>
+  </si>
+  <si>
+    <t>Peak stator current (phase)</t>
+  </si>
+  <si>
+    <t>Number of parallel conducting capacitors</t>
+  </si>
+  <si>
+    <t>Parallel Caps</t>
+  </si>
+  <si>
+    <t>nCap</t>
+  </si>
+  <si>
+    <t>Total thermal capacity from hotspot to water</t>
+  </si>
+  <si>
+    <t>Dominating thermal resistance from hotspot to water</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>Heat transfer coefficient to coolant</t>
+  </si>
+  <si>
+    <t>Heat transfer area to coolant</t>
+  </si>
+  <si>
+    <t>h_th</t>
+  </si>
+  <si>
+    <t>A_th</t>
+  </si>
+  <si>
+    <t>W/m2K</t>
+  </si>
+  <si>
+    <t>Heat Transfer</t>
+  </si>
+  <si>
+    <t>Heat Area</t>
+  </si>
+  <si>
+    <t>Activation Energie</t>
+  </si>
+  <si>
+    <t>Coffin Exponent</t>
+  </si>
+  <si>
+    <t>Voltage Exponent</t>
+  </si>
+  <si>
+    <t>Nominal Lifetime</t>
+  </si>
+  <si>
+    <t>Nominal Cycles</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>cycles</t>
+  </si>
+  <si>
+    <t>Activatio energie for high temperature aging</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Coffin manson exponent for temperature changes</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Voltage exponent for stress of electrical fields</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Nominal lifetime provided for a certain failure probability</t>
+  </si>
+  <si>
+    <t>L0</t>
+  </si>
+  <si>
+    <t>Nf0</t>
+  </si>
+  <si>
+    <t>Nominal cycles provided for a certain failure probability</t>
+  </si>
+  <si>
+    <t>Weibull slope</t>
+  </si>
+  <si>
+    <t>Slope of the weibull distribution</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Confidence level of the weibull distribution</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Nominal failure probability</t>
+  </si>
+  <si>
+    <t>Nominal Failure</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>Desired Failure</t>
+  </si>
+  <si>
+    <t>Desired failure probabiliy</t>
+  </si>
+  <si>
+    <t>Bx</t>
+  </si>
+  <si>
+    <t>Area of the radiator</t>
+  </si>
+  <si>
+    <t>A_r</t>
+  </si>
+  <si>
+    <t>Area of vehicle bottom</t>
+  </si>
+  <si>
+    <t>A_b</t>
+  </si>
+  <si>
+    <t>Radiator Area</t>
+  </si>
+  <si>
+    <t>Vehicle Area</t>
+  </si>
+  <si>
+    <t>Activation Energie Cell</t>
+  </si>
+  <si>
+    <t>Activation energie for scaling cell resistances</t>
+  </si>
+  <si>
+    <t>E_a</t>
+  </si>
+  <si>
+    <t>Internal source resistance @20degC</t>
+  </si>
+  <si>
+    <t>Torque Limit</t>
+  </si>
+  <si>
+    <t>Speed Limit</t>
+  </si>
+  <si>
+    <t>Power Limit</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute value of the maximum torque </t>
+  </si>
+  <si>
+    <t>Absolute value of the maximum speed</t>
+  </si>
+  <si>
+    <t>Absolute value of the maximum power</t>
+  </si>
+  <si>
+    <t>P_Max</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>I_Max</t>
+  </si>
+  <si>
+    <t>Absolute value of the maximum electrical power</t>
+  </si>
+  <si>
+    <t>Peak phase current</t>
   </si>
   <si>
     <t>I_max</t>
   </si>
   <si>
     <t>P_max</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Fluxlinkage</t>
-  </si>
-  <si>
-    <t>Permanent magnet flux linkage</t>
-  </si>
-  <si>
-    <t>Psi_pm</t>
-  </si>
-  <si>
-    <t>Vs</t>
-  </si>
-  <si>
-    <t>L_d</t>
-  </si>
-  <si>
-    <t>L_q</t>
-  </si>
-  <si>
-    <t>Inductance D</t>
-  </si>
-  <si>
-    <t>Inductance Q</t>
-  </si>
-  <si>
-    <t>Maximum RMS stator current (phase)</t>
-  </si>
-  <si>
-    <t>Vs/A</t>
-  </si>
-  <si>
-    <t>Stator inductance d-axis</t>
-  </si>
-  <si>
-    <t>Stator inductance q-axis</t>
-  </si>
-  <si>
-    <t>Stator Resistance</t>
-  </si>
-  <si>
-    <t>Per phase stator resistance @20 degC</t>
-  </si>
-  <si>
-    <t>R_s</t>
-  </si>
-  <si>
-    <t>Maximum power machine</t>
-  </si>
-  <si>
-    <t>c_m</t>
-  </si>
-  <si>
-    <t>c_b</t>
-  </si>
-  <si>
-    <t>Switching Frequency</t>
-  </si>
-  <si>
-    <t>Average switching frequency</t>
-  </si>
-  <si>
-    <t>fs</t>
-  </si>
-  <si>
-    <t>Hz</t>
-  </si>
-  <si>
-    <t>Switches</t>
-  </si>
-  <si>
-    <t>1) IGBT, 2) MOSFET</t>
-  </si>
-  <si>
-    <t>Parallel Switches</t>
-  </si>
-  <si>
-    <t>Number of parallel conducting switches</t>
-  </si>
-  <si>
-    <t>nSw</t>
-  </si>
-  <si>
-    <t>Collector Voltage</t>
-  </si>
-  <si>
-    <t>Zero offset collector voltage IGBT</t>
-  </si>
-  <si>
-    <t>On resistance of the transistor</t>
-  </si>
-  <si>
-    <t>r_T</t>
-  </si>
-  <si>
-    <t>V_ce0</t>
-  </si>
-  <si>
-    <t>Diode Voltage</t>
-  </si>
-  <si>
-    <t>Zero offset forward voltage Diode</t>
-  </si>
-  <si>
-    <t>V_d0</t>
-  </si>
-  <si>
-    <t>On Resistance Switch</t>
-  </si>
-  <si>
-    <t>On Resistance Diode</t>
-  </si>
-  <si>
-    <t>On resistance of the diode</t>
-  </si>
-  <si>
-    <t>r_D</t>
-  </si>
-  <si>
-    <t>On Energie</t>
-  </si>
-  <si>
-    <t>Off Energie</t>
-  </si>
-  <si>
-    <t>Rec Energie</t>
-  </si>
-  <si>
-    <t>E_on</t>
-  </si>
-  <si>
-    <t>E_off</t>
-  </si>
-  <si>
-    <t>E_rec</t>
-  </si>
-  <si>
-    <t>On switch energie at rated conditions</t>
-  </si>
-  <si>
-    <t>Off switch energie at rated conditions</t>
-  </si>
-  <si>
-    <t>Reverse recovery energy at rated conditions</t>
-  </si>
-  <si>
-    <t>Rated Voltage</t>
-  </si>
-  <si>
-    <t>Rated Current</t>
-  </si>
-  <si>
-    <t>Rated Temperature</t>
-  </si>
-  <si>
-    <t>degC</t>
-  </si>
-  <si>
-    <t>ESR DC-Link</t>
-  </si>
-  <si>
-    <t>Electrical resistance DC-Link capacitor</t>
-  </si>
-  <si>
-    <t>R_esr</t>
-  </si>
-  <si>
-    <t>Capacity DC Link</t>
-  </si>
-  <si>
-    <t>Capacitance DC-Link capacitor</t>
-  </si>
-  <si>
-    <t>C_dc</t>
-  </si>
-  <si>
-    <t>As/V</t>
-  </si>
-  <si>
-    <t>AC Busbar</t>
-  </si>
-  <si>
-    <t>R_ac</t>
-  </si>
-  <si>
-    <t>DC Busbar</t>
-  </si>
-  <si>
-    <t>R_dc</t>
-  </si>
-  <si>
-    <t>V_0</t>
-  </si>
-  <si>
-    <t>I_0</t>
-  </si>
-  <si>
-    <t>T_0</t>
-  </si>
-  <si>
-    <t>Rated voltage for loss calculation</t>
-  </si>
-  <si>
-    <t>Rated current for loss calculation</t>
-  </si>
-  <si>
-    <t>Rated temperature for loss calculation</t>
-  </si>
-  <si>
-    <t>K_f</t>
-  </si>
-  <si>
-    <t>K_h</t>
-  </si>
-  <si>
-    <t>C_th</t>
-  </si>
-  <si>
-    <t>R_th</t>
-  </si>
-  <si>
-    <t>Min Voltage</t>
-  </si>
-  <si>
-    <t>Max Voltage</t>
-  </si>
-  <si>
-    <t>Nom Voltage</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>kWh</t>
-  </si>
-  <si>
-    <t>V_nom</t>
-  </si>
-  <si>
-    <t>V_max</t>
-  </si>
-  <si>
-    <t>V_min</t>
-  </si>
-  <si>
-    <t>E_bat</t>
-  </si>
-  <si>
-    <t>Maximum voltage storage</t>
-  </si>
-  <si>
-    <t>Minimum voltage storage</t>
-  </si>
-  <si>
-    <t>Nominal voltage torage</t>
-  </si>
-  <si>
-    <t>Brutto energy content storage</t>
-  </si>
-  <si>
-    <t>Ideal recuperation efficiency</t>
-  </si>
-  <si>
-    <t>eta</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Recu Efficiency</t>
-  </si>
-  <si>
-    <t>Distribution of breaking forces front/rear</t>
-  </si>
-  <si>
-    <t>Distribution of acceleration forces front/rear (AWD only)</t>
-  </si>
-  <si>
-    <t>d_b</t>
-  </si>
-  <si>
-    <t>d_a</t>
-  </si>
-  <si>
-    <t>p.u.</t>
-  </si>
-  <si>
-    <t>Break Force</t>
-  </si>
-  <si>
-    <t>Acceleration Force</t>
-  </si>
-  <si>
-    <t>Hysteresis losses at rated flux and rated frequency</t>
-  </si>
-  <si>
-    <t>Eddy losses at rated flux and rated frequency</t>
-  </si>
-  <si>
-    <t>Hysteresis Loss</t>
-  </si>
-  <si>
-    <t>Eddy Loss</t>
-  </si>
-  <si>
-    <t>J_gbx</t>
-  </si>
-  <si>
-    <t>Leakage inductance stator</t>
-  </si>
-  <si>
-    <t>L_sig</t>
-  </si>
-  <si>
-    <t>Leakage Inductance</t>
-  </si>
-  <si>
-    <t>Machine Type</t>
-  </si>
-  <si>
-    <t>Magnet</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Mag</t>
-  </si>
-  <si>
-    <t>1) PSM, 2) SSM, 3) ASM</t>
-  </si>
-  <si>
-    <t>1) Surface Magnet, 2) Interior Magnet</t>
-  </si>
-  <si>
-    <t>Slope Temperature</t>
-  </si>
-  <si>
-    <t>Gate Resistance</t>
-  </si>
-  <si>
-    <t>Value of the gate resistance for loss scaling</t>
-  </si>
-  <si>
-    <t>R_g</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>Sensitivity of parameters with temperature (Tjmax-T0)</t>
-  </si>
-  <si>
-    <t>Max Temperature</t>
-  </si>
-  <si>
-    <t>Tj_max</t>
-  </si>
-  <si>
-    <t>AC busbar resistance per phase @20 degC</t>
-  </si>
-  <si>
-    <t>DC busbar resistance @20 degC</t>
-  </si>
-  <si>
-    <t>R_i</t>
-  </si>
-  <si>
-    <t>Activation Energy</t>
-  </si>
-  <si>
-    <t>Acitavtion energy for resistance change</t>
-  </si>
-  <si>
-    <t>eV</t>
-  </si>
-  <si>
-    <t>Sw</t>
-  </si>
-  <si>
-    <t>E_a</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1526,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1389,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -1409,7 +1562,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -1429,7 +1582,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -1449,7 +1602,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -1469,7 +1622,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -1489,7 +1642,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -1509,7 +1662,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -1529,7 +1682,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -1549,7 +1702,7 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
@@ -1569,7 +1722,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>52</v>
@@ -1586,151 +1739,183 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E11">
         <v>0.6</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E12">
         <v>0.5</v>
       </c>
       <c r="F12" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E13" s="9">
         <v>0.6</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E14">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E16">
         <v>4184</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
         <v>67</v>
       </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18">
+        <v>0.1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1739,16 +1924,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7BF3F9-74A5-48BC-85E5-DF3C836A4E03}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1757,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -1777,7 +1962,7 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
@@ -1794,127 +1979,401 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E3" s="9">
         <v>0.1</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0.6</v>
+        <v>450</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.3</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.06</v>
+        <v>296</v>
+      </c>
+      <c r="E6" s="11">
+        <v>250000</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="E7">
-        <v>50000</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10">
+        <v>50000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F11" t="s">
         <v>86</v>
       </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="D10" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14">
+        <v>0.45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15">
+        <v>-2.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16">
+        <v>-3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21">
+        <v>0.6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22">
+        <v>0.1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1923,16 +2382,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3630A6F7-7256-4058-B238-4C7390C489AB}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1940,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -1957,16 +2416,16 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1977,19 +2436,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1997,16 +2456,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2017,256 +2476,254 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5">
+        <f>5000/60</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E5">
-        <f>16000/60</f>
-        <v>266.66666666666669</v>
-      </c>
-      <c r="F5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6">
-        <f>4750/60</f>
-        <v>79.166666666666671</v>
-      </c>
-      <c r="F6" t="s">
-        <v>110</v>
+      <c r="E6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>287</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>420</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>75</v>
+      <c r="A8" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>267</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>293</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9">
-        <f>971</f>
-        <v>971</v>
+        <v>296</v>
+      </c>
+      <c r="E9" s="7">
+        <v>239000</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10">
-        <v>239000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>118</v>
+      <c r="A10" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1373</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E11">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E12" s="7">
         <v>1.1E-4</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E13" s="7">
-        <v>1.1E-4</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E14" s="7">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E15" s="11">
-        <v>4.7499999999999999E-3</v>
+        <v>4.8500000000000001E-3</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E16">
         <v>0.3</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -2275,21 +2732,21 @@
         <v>0.06</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E18" s="7">
         <v>1.2E-2</v>
@@ -2297,16 +2754,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E19" s="11">
         <v>1.7000000000000001E-2</v>
@@ -2315,42 +2772,260 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E20">
         <v>50000</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21">
+        <v>0.01</v>
+      </c>
+      <c r="F21" t="s">
         <v>86</v>
       </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24">
+        <v>0.45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25">
+        <v>-2.5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E26">
+        <v>-3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27">
+        <v>1000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28">
+        <v>1000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E31">
+        <v>0.6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32">
+        <v>0.1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2360,16 +3035,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285D35A-F197-4EB0-88CD-0BBC2A0271CA}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A37" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2377,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -2394,36 +3069,36 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E2">
         <v>8000</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2434,16 +3109,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2454,382 +3129,660 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5">
-        <v>650</v>
+        <v>233</v>
+      </c>
+      <c r="E5" s="7">
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E6">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>750</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9">
         <v>150</v>
       </c>
-      <c r="F8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="9">
         <v>0.4</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10">
-        <v>0.7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
+      <c r="F10" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>154</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="E11" s="7">
-        <v>0.04</v>
+        <v>250000</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F12" t="s">
-        <v>4</v>
+      <c r="A12" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1373</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.05</v>
+        <v>137</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E14" s="7">
-        <v>1.84E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="7">
-        <v>2.3599999999999999E-2</v>
+        <v>140</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E16" s="7">
-        <v>1.34E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17">
-        <v>2.2000000000000002</v>
+        <v>148</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1.84E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E18" s="7">
-        <v>1E-3</v>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="E19" s="7">
-        <v>6.4999999999999997E-4</v>
+        <v>1.34E-2</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="7">
-        <v>2.5000000000000001E-4</v>
+        <v>220</v>
+      </c>
+      <c r="E20">
+        <v>2.2000000000000002</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="11">
-        <v>1.2E-4</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>59</v>
+      <c r="A21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22">
-        <v>50</v>
+        <v>163</v>
+      </c>
+      <c r="E22" s="7">
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>225</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23">
-        <v>0.2</v>
+        <v>166</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1.2E-4</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26">
+        <v>0.04</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27">
+        <v>1000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" t="s">
+        <v>251</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E29">
+        <v>0.45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30">
+        <v>-2.5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E31">
+        <v>-3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E32">
+        <v>1000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E33">
+        <v>1000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E34">
+        <v>0.1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36">
+        <v>0.6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E37">
+        <v>0.1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2839,17 +3792,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D1B2C-94E2-459A-81F7-2E9B24A83AD3}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2857,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -2874,162 +3827,420 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>293</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="E2" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>250000</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3">
-        <v>360</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
+      <c r="A3" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1373</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4">
-        <v>400</v>
+        <v>227</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E5">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="9">
-        <v>50</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>196</v>
+      <c r="A6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6">
+        <v>400</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E7">
-        <v>50000</v>
+        <v>275</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>86</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>280</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8">
+        <v>0.2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="D9" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="9">
+        <v>50</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10">
+        <v>50000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11">
+        <v>0.05</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12" t="s">
         <v>241</v>
       </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" s="3" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14">
+        <v>0.45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>243</v>
+      <c r="B15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15">
+        <v>-2.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16">
+        <v>-3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21">
+        <v>0.6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22">
+        <v>0.1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/setup/setup_Template.xlsx
+++ b/setup/setup_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B86AF50C-FD2C-4A43-B0DE-B0A59999DFAA}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DFFCA06-4396-463E-BEBA-D3A0BE06CCA7}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="5" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="2400" yWindow="3888" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="298">
   <si>
     <t>#</t>
   </si>
@@ -932,6 +932,9 @@
   </si>
   <si>
     <t>P_max</t>
+  </si>
+  <si>
+    <t>Ws/kgK</t>
   </si>
 </sst>
 </file>
@@ -1525,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAB857B-5D2E-4BE1-B462-B4B5EEAA4370}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1854,7 +1857,7 @@
         <v>4184</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1891,7 +1894,7 @@
         <v>274</v>
       </c>
       <c r="E18">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -1911,7 +1914,7 @@
         <v>276</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -1919,6 +1922,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3794,7 +3798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D1B2C-94E2-459A-81F7-2E9B24A83AD3}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/setup/setup_Template.xlsx
+++ b/setup/setup_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DFFCA06-4396-463E-BEBA-D3A0BE06CCA7}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF5CFEF9-BA6D-4571-87E7-D88B3CB676E1}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="3888" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
@@ -1529,7 +1529,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1794,7 +1794,7 @@
         <v>193</v>
       </c>
       <c r="E13" s="9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>194</v>

--- a/setup/setup_Template.xlsx
+++ b/setup/setup_Template.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF5CFEF9-BA6D-4571-87E7-D88B3CB676E1}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="3888" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -1528,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAB857B-5D2E-4BE1-B462-B4B5EEAA4370}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2388,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3630A6F7-7256-4058-B238-4C7390C489AB}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A2:A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/setup/setup_Template.xlsx
+++ b/setup/setup_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF5CFEF9-BA6D-4571-87E7-D88B3CB676E1}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2B04806-6E13-495E-AE6C-B420B29EA686}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
@@ -1094,10 +1094,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1931,7 +1927,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2389,7 +2385,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2596,7 +2592,7 @@
         <v>1373</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3042,7 +3038,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A2:A37"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3288,7 +3284,7 @@
         <v>1373</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3799,7 +3795,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3863,10 +3859,10 @@
         <v>292</v>
       </c>
       <c r="E3" s="11">
-        <v>1373</v>
+        <v>971</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">

--- a/setup/setup_Template.xlsx
+++ b/setup/setup_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2B04806-6E13-495E-AE6C-B420B29EA686}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C36D5E-80BD-470B-A811-A1880D815102}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="301">
   <si>
     <t>#</t>
   </si>
@@ -935,6 +935,15 @@
   </si>
   <si>
     <t>Ws/kgK</t>
+  </si>
+  <si>
+    <t>M_max</t>
+  </si>
+  <si>
+    <t>Temperature Limit</t>
+  </si>
+  <si>
+    <t>Maximum allowed temperature</t>
   </si>
 </sst>
 </file>
@@ -1094,6 +1103,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1924,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7BF3F9-74A5-48BC-85E5-DF3C836A4E03}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2008,7 +2021,7 @@
         <v>287</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>298</v>
       </c>
       <c r="E4">
         <v>450</v>
@@ -2019,237 +2032,237 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
         <v>286</v>
       </c>
       <c r="C5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" t="s">
         <v>288</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>267</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>250000</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7">
-        <v>0.6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>0.06</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10">
-        <v>50000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11">
-        <v>5.0000000000000001E-3</v>
+        <v>50000</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
       </c>
       <c r="C12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
         <v>237</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>1000</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E14">
-        <v>0.45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
         <v>236</v>
       </c>
       <c r="C15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="E15">
-        <v>-2.5</v>
+        <v>0.45</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
         <v>236</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E16">
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
       <c r="F16" t="s">
         <v>38</v>
@@ -2257,121 +2270,141 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
         <v>236</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E17">
-        <v>1000</v>
+        <v>-3</v>
       </c>
       <c r="F17" t="s">
-        <v>249</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
         <v>236</v>
       </c>
       <c r="C18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E18">
         <v>1000</v>
       </c>
       <c r="F18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
         <v>236</v>
       </c>
       <c r="C19" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E19">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
         <v>236</v>
       </c>
       <c r="C20" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s">
         <v>236</v>
       </c>
       <c r="C21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E21">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B22" t="s">
         <v>236</v>
       </c>
       <c r="C22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22">
+        <v>0.6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" t="s">
         <v>271</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>0.1</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2382,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3630A6F7-7256-4058-B238-4C7390C489AB}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2526,7 +2559,7 @@
         <v>287</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>298</v>
       </c>
       <c r="E7">
         <v>420</v>
@@ -2537,119 +2570,119 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
         <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8">
-        <v>267</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
         <v>286</v>
       </c>
       <c r="C9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>267</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" t="s">
         <v>293</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>239000</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>1373</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1.1E-4</v>
+        <v>110</v>
+      </c>
+      <c r="E12">
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="7">
-        <v>3.4000000000000002E-4</v>
+        <v>1.1E-4</v>
       </c>
       <c r="F13" t="s">
         <v>116</v>
@@ -2657,252 +2690,252 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="E14" s="7">
-        <v>4.0000000000000002E-4</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="F14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>4.8500000000000001E-3</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16">
-        <v>0.3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0.06</v>
+        <v>77</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17">
+        <v>0.3</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>205</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
       </c>
       <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>234</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20">
-        <v>50000</v>
-      </c>
-      <c r="F20" t="s">
-        <v>87</v>
-      </c>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21">
-        <v>0.01</v>
+        <v>50000</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
       </c>
       <c r="C22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22">
+        <v>0.01</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>1000</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B24" t="s">
-        <v>236</v>
-      </c>
-      <c r="C24" t="s">
-        <v>251</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E24">
-        <v>0.45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s">
         <v>236</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="E25">
-        <v>-2.5</v>
+        <v>0.45</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s">
         <v>236</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E26">
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
       <c r="F26" t="s">
         <v>38</v>
@@ -2910,121 +2943,141 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s">
         <v>236</v>
       </c>
       <c r="C27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E27">
-        <v>1000</v>
+        <v>-3</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s">
         <v>236</v>
       </c>
       <c r="C28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E28">
         <v>1000</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s">
         <v>236</v>
       </c>
       <c r="C29" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E29">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="F29" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s">
         <v>236</v>
       </c>
       <c r="C30" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s">
         <v>236</v>
       </c>
       <c r="C31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E31">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s">
         <v>236</v>
       </c>
       <c r="C32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32">
+        <v>0.6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" t="s">
         <v>271</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>0.1</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3035,10 +3088,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285D35A-F197-4EB0-88CD-0BBC2A0271CA}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3247,7 +3300,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>285</v>
       </c>
@@ -3267,141 +3320,141 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12">
+        <v>150</v>
+      </c>
+      <c r="F12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>1373</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13">
-        <v>0.3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>137</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15">
-        <v>0.5</v>
+        <v>136</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2E-3</v>
+        <v>140</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E17" s="7">
-        <v>1.84E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="7">
-        <v>2.3599999999999999E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="F18" t="s">
         <v>73</v>
@@ -3409,19 +3462,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" s="7">
-        <v>1.34E-2</v>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="F19" t="s">
         <v>73</v>
@@ -3429,39 +3482,39 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20">
-        <v>2.2000000000000002</v>
+        <v>150</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1.34E-2</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1E-3</v>
+        <v>220</v>
+      </c>
+      <c r="E21">
+        <v>2.2000000000000002</v>
       </c>
       <c r="F21" t="s">
         <v>58</v>
@@ -3469,197 +3522,197 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E22" s="7">
-        <v>6.4999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
       </c>
       <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="7">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
         <v>225</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E24" s="7">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <v>1.2E-4</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F25" s="9" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25">
-        <v>50</v>
-      </c>
-      <c r="F25" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
         <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E26">
-        <v>0.04</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
         <v>61</v>
       </c>
       <c r="C27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27">
+        <v>0.04</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
         <v>237</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>1000</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B29" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29">
-        <v>0.45</v>
-      </c>
-      <c r="F29" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s">
         <v>236</v>
       </c>
       <c r="C30" t="s">
-        <v>253</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="E30">
-        <v>-2.5</v>
+        <v>0.45</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s">
         <v>236</v>
       </c>
       <c r="C31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E31">
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
       <c r="F31" t="s">
         <v>38</v>
@@ -3667,121 +3720,141 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s">
         <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E32">
-        <v>1000</v>
+        <v>-3</v>
       </c>
       <c r="F32" t="s">
-        <v>249</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s">
         <v>236</v>
       </c>
       <c r="C33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E33">
         <v>1000</v>
       </c>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s">
         <v>236</v>
       </c>
       <c r="C34" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E34">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="F34" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s">
         <v>236</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B36" t="s">
         <v>236</v>
       </c>
       <c r="C36" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E36">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B37" t="s">
         <v>236</v>
       </c>
       <c r="C37" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37">
+        <v>0.6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" t="s">
         <v>271</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>0.1</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3792,10 +3865,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D1B2C-94E2-459A-81F7-2E9B24A83AD3}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3846,80 +3919,80 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E4" s="11">
         <v>971</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5">
-        <v>360</v>
+        <v>227</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
@@ -3927,19 +4000,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
@@ -3947,177 +4020,177 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
       </c>
       <c r="C8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8">
+        <v>275</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
         <v>280</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>0.2</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>50</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10">
-        <v>50000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>50000</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
       </c>
       <c r="C12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
         <v>237</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>1000</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E14">
-        <v>0.45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
         <v>236</v>
       </c>
       <c r="C15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="E15">
-        <v>-2.5</v>
+        <v>0.45</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
         <v>236</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E16">
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
       <c r="F16" t="s">
         <v>38</v>
@@ -4125,121 +4198,141 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
         <v>236</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E17">
-        <v>1000</v>
+        <v>-3</v>
       </c>
       <c r="F17" t="s">
-        <v>249</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
         <v>236</v>
       </c>
       <c r="C18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E18">
         <v>1000</v>
       </c>
       <c r="F18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
         <v>236</v>
       </c>
       <c r="C19" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E19">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
         <v>236</v>
       </c>
       <c r="C20" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s">
         <v>236</v>
       </c>
       <c r="C21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E21">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B22" t="s">
         <v>236</v>
       </c>
       <c r="C22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22">
+        <v>0.6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" t="s">
         <v>271</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>0.1</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>194</v>
       </c>
     </row>

--- a/setup/setup_Template.xlsx
+++ b/setup/setup_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C36D5E-80BD-470B-A811-A1880D815102}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5988D4B1-44BB-4319-9A69-A0B979D72D71}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -1103,10 +1103,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1538,7 +1534,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2417,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3630A6F7-7256-4058-B238-4C7390C489AB}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2722,7 +2718,7 @@
         <v>209</v>
       </c>
       <c r="E15" s="7">
-        <v>4.0000000000000002E-4</v>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -3090,7 +3086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285D35A-F197-4EB0-88CD-0BBC2A0271CA}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>

--- a/setup/setup_Template.xlsx
+++ b/setup/setup_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5988D4B1-44BB-4319-9A69-A0B979D72D71}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="13_ncr:1_{B7CA4536-B758-4683-983B-F8B7FD8E2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD8AC6AA-49D7-437C-93AF-EAC37C2B0A3B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
@@ -2414,7 +2414,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J12" sqref="J11:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2658,7 +2658,7 @@
         <v>110</v>
       </c>
       <c r="E12">
-        <v>7.3999999999999996E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F12" t="s">
         <v>111</v>
